--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_4_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_4_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-650506.059599584</v>
+        <v>-652486.9761800099</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.06655358</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14058254.23074971</v>
+        <v>14066703.43566346</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>195.9321101376458</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>333.2312797391936</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.4437575361708</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>74.09260911231075</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>129.7857003665473</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>27.77238941128248</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>160.0179384138199</v>
       </c>
       <c r="V7" t="n">
-        <v>226.9736586744965</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>326.090677192008</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>3.842429690044086</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>77.72878559814581</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>25.31590541686263</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>80.8760437520949</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>7.674205714126901</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>62.97449314549657</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>35.46686327037811</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>253.1496527219946</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>93.70991968893367</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>172.7067178467372</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113179</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274142</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051992</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262929</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014475</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670633</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>55.51369213498586</v>
+        <v>36.88234405457709</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36.60092856329088</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>151.838918028642</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463203</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463139</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124556</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9570160514548</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1181.549686895097</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1181.549686895097</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>823.2839882883463</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>823.2839882883463</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4325,13 +4325,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.958510780817</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.958510780817</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,25 +4434,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.2080756496231</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>359.2080756496231</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>359.2080756496231</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>359.2080756496231</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V4" t="n">
-        <v>359.2080756496231</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W4" t="n">
-        <v>359.2080756496231</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X4" t="n">
-        <v>359.2080756496231</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.2080756496231</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>756.4694329640045</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>338.5056248621913</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="V7" t="n">
-        <v>498.8626623130036</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="W7" t="n">
-        <v>498.8626623130036</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X7" t="n">
-        <v>498.8626623130036</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.8626623130036</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1241.158393318536</v>
+        <v>1490.470645930551</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1121.508128990139</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1121.508128990139</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1121.508128990139</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>710.5222242005314</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2693.267848907067</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2517.090361221237</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2298.4556941933</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2298.4556941933</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>1967.39280684973</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>1614.624151579615</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X8" t="n">
-        <v>1241.158393318536</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="Y8" t="n">
-        <v>1241.158393318536</v>
+        <v>1877.070485994672</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>702.55736257324</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5033,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.2823606383757</v>
+        <v>757.4105722479387</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383757</v>
+        <v>588.4743893200318</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383757</v>
+        <v>438.3577499076961</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383757</v>
+        <v>290.4446563253029</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404654</v>
+        <v>290.4446563253029</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799344</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471171</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119726</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119726</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119726</v>
       </c>
       <c r="U13" t="n">
-        <v>956.3840188812233</v>
+        <v>1387.841167119726</v>
       </c>
       <c r="V13" t="n">
-        <v>701.6995306753364</v>
+        <v>1387.841167119726</v>
       </c>
       <c r="W13" t="n">
-        <v>412.2823606383757</v>
+        <v>1387.841167119726</v>
       </c>
       <c r="X13" t="n">
-        <v>412.2823606383757</v>
+        <v>1159.851616221709</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.2823606383757</v>
+        <v>939.0590370781784</v>
       </c>
     </row>
     <row r="14">
@@ -5258,31 +5258,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,19 +5358,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.2984649031105</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>272.3622819752036</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>272.3622819752036</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>843.7395088768803</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>843.7395088768803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>622.9469297333502</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.5552164996849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>896.5552164996849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>746.4385770873491</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>598.525483504956</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>451.6355360070456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>283.4602143268661</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>133.0422058748092</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1298.996260473455</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1298.996260473455</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>1078.203681329925</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,31 +5738,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333286</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1098.712528333286</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>843.0058084120794</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X22" t="n">
-        <v>615.0162575140621</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,13 +5987,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
@@ -6002,7 +6002,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726148</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726148</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726148</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1124.545030325236</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>835.4163915387938</v>
+        <v>786.082206476519</v>
       </c>
       <c r="V25" t="n">
-        <v>835.4163915387938</v>
+        <v>531.3977182706321</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>531.3977182706321</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>303.4081673726148</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726148</v>
       </c>
     </row>
     <row r="26">
@@ -6212,46 +6212,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155896</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805478</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823773</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514047</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.8883477952</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515087</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619115</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643308</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899108</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720781</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6279,67 +6279,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525786</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714517</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102004</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047449</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316299</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358152</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675028</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126474</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571585</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636206</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.51382364358</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130761</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526305</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963126</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278839</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376139</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
         <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.752784383691</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003078</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6348,7 +6348,7 @@
         <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072647</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726215</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241953</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688059</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.497233179934</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471158</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974662</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980058</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.08282758574</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557896</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557896</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473448</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262953</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765116</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706248</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W28" t="n">
-        <v>475.3232817706389</v>
+        <v>494.1428252862103</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726215</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726215</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6443,52 +6443,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163781</v>
+        <v>451.1914993430017</v>
       </c>
       <c r="C31" t="n">
-        <v>491.388826169842</v>
+        <v>451.1914993430017</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388771</v>
+        <v>451.1914993430017</v>
       </c>
       <c r="E31" t="n">
-        <v>360.062417126462</v>
+        <v>451.1914993430017</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
         <v>997.668872196205</v>
@@ -6637,16 +6637,16 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818936</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365247</v>
+        <v>730.4517433652464</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.451743365247</v>
+        <v>577.0790988918707</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108339</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506735</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083214</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504521</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798298</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010325</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7072,16 +7072,16 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103127</v>
@@ -7090,7 +7090,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083196</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7357,10 +7357,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7394,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7433,7 +7433,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670534</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208171</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>453.5018714396643</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>1108.225203574964</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1559.259416823373</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2092.791321495297</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2639.57013855408</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3483.798167244623</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4197.153254691569</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208807</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587483</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333969</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>668.6846748535633</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893008</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549809</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051438</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>245.8606895279362</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938672</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>188.845109159628</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>439.337677360911</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618142</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.06529191377</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.814038044861</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730927</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135849</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.66178084145</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133949</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207666</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949852</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155634</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516222</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>169.2863157167187</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987300515</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208217</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>43.65987261462459</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476834</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>85.61752471128268</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>278.5631466844504</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>83.45946950107259</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>74.9523821938939</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>33.37334561459639</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>52.7240429576355</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>48.84084321165205</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642722</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037931</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>231.0093062016051</v>
+        <v>249.6406542820139</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>54.62977745472119</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>11.54247869489573</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-5.775380301785823e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1224921.073261426</v>
+        <v>1239552.362411545</v>
       </c>
     </row>
   </sheetData>
@@ -26323,31 +26323,31 @@
         <v>215065.9828557399</v>
       </c>
       <c r="F2" t="n">
-        <v>215065.9828557399</v>
+        <v>215065.9828557398</v>
       </c>
       <c r="G2" t="n">
         <v>215065.9828557399</v>
       </c>
       <c r="H2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="I2" t="n">
         <v>215065.9828557399</v>
       </c>
       <c r="J2" t="n">
-        <v>215065.9828557397</v>
+        <v>215065.9828557398</v>
       </c>
       <c r="K2" t="n">
         <v>223752.1755398986</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126782</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.4867126782</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.4867126782</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925898</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028487</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755741</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26418,13 +26418,13 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26439,25 +26439,25 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230257</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649889</v>
+        <v>47468.16806649887</v>
       </c>
       <c r="L4" t="n">
+        <v>51722.33279362281</v>
+      </c>
+      <c r="M4" t="n">
         <v>51722.33279362282</v>
       </c>
-      <c r="M4" t="n">
-        <v>51722.33279362283</v>
-      </c>
       <c r="N4" t="n">
-        <v>51722.33279362283</v>
+        <v>51722.33279362277</v>
       </c>
       <c r="O4" t="n">
         <v>51722.33279362279</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950703</v>
+        <v>51722.33279362279</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871656</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="P5" t="n">
-        <v>101591.2743431396</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-621531.2478871021</v>
       </c>
       <c r="C6" t="n">
-        <v>-31563.36867255763</v>
+        <v>-31563.36867255761</v>
       </c>
       <c r="D6" t="n">
         <v>-31563.36867255767</v>
       </c>
       <c r="E6" t="n">
-        <v>-431384.925122175</v>
+        <v>-431482.3842481474</v>
       </c>
       <c r="F6" t="n">
-        <v>93775.11135472091</v>
+        <v>93677.65222874872</v>
       </c>
       <c r="G6" t="n">
-        <v>93775.11135472094</v>
+        <v>93677.65222874878</v>
       </c>
       <c r="H6" t="n">
-        <v>93775.11135472081</v>
+        <v>93677.65222874878</v>
       </c>
       <c r="I6" t="n">
-        <v>93775.1113547209</v>
+        <v>93677.65222874856</v>
       </c>
       <c r="J6" t="n">
-        <v>-82648.10783786923</v>
+        <v>-82745.56696384403</v>
       </c>
       <c r="K6" t="n">
-        <v>35493.19364032817</v>
+        <v>35474.69990239688</v>
       </c>
       <c r="L6" t="n">
-        <v>66006.14129816307</v>
+        <v>66006.141298163</v>
       </c>
       <c r="M6" t="n">
-        <v>-58451.96713480713</v>
+        <v>-58451.96713480736</v>
       </c>
       <c r="N6" t="n">
-        <v>76349.04809902994</v>
+        <v>76349.04809902993</v>
       </c>
       <c r="O6" t="n">
-        <v>76349.04809902998</v>
+        <v>76349.0480990299</v>
       </c>
       <c r="P6" t="n">
-        <v>-105823.1451255427</v>
+        <v>32186.44279618426</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.382405454096</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="C4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>55.20325662855709</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12.92863350108364</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>55.20325662855704</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.92863350108357</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>34.04650311750896</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.015882801023072e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.206412995699793e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>210.9439356040656</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,7 +27433,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>36.49982093927548</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>22.70178141384812</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>144.492044239784</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>194.1370723978098</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>321.4685793061306</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>126.2639358281578</v>
       </c>
       <c r="V7" t="n">
-        <v>25.16398464933152</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>87.69349282878699</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>50.63597288476758</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>89.51803550048203</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>200.3937499721745</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-7.032208304403594e-13</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30238,10 +30238,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.3382207254436</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444927</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176645</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.327311296119</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041466</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304413</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565488</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927155</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540857</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946968</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647478</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446467</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810461</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562936</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354879</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354093</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386717</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127032</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215725</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622967</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358965</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724822</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813438</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855504</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458532</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710945</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095112</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677448</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361452</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680325</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081156</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990338</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298607</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822378</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557925</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196112</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171307</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263739</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065621</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469063</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235685</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337634</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336887</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892213</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351773</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799266</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
@@ -35653,7 +35653,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35726,10 +35726,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>483.6693559063411</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>418.5440206727429</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35981,10 +35981,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415065</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303308</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109045</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221086</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081088</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951443</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109098</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150203</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970351971</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953146</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005164</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560223</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504639</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980104</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.363702241106</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523446</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.090320520922</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686807</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556505</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299097</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799274</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789714</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056025</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206018</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006117999</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187416</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37005,10 +37005,10 @@
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,19 +37154,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359025</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
